--- a/购票.xlsx
+++ b/购票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,13 @@
   </si>
   <si>
     <t>110526198512041004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>18612345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,19 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +607,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -622,8 +633,11 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -645,8 +659,11 @@
       <c r="G3" s="4">
         <v>43644</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -668,8 +685,11 @@
       <c r="G4" s="4">
         <v>43625</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -691,8 +711,11 @@
       <c r="G5" s="4">
         <v>43628</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -714,8 +737,11 @@
       <c r="G6" s="4">
         <v>43629</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -737,8 +763,11 @@
       <c r="G7" s="4">
         <v>43623</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -760,8 +789,11 @@
       <c r="G8" s="4">
         <v>43618</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -783,8 +815,11 @@
       <c r="G9" s="4">
         <v>43619</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -806,8 +841,11 @@
       <c r="G10" s="4">
         <v>43628</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,8 +867,11 @@
       <c r="G11" s="4">
         <v>43622</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -851,6 +892,9 @@
       </c>
       <c r="G12" s="4">
         <v>43645</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
